--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\OneDrive\GitHub\TP-AppWeb\Enonce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\GitHub\TP-AppWeb\Enonce\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Catalogue-sem-1" sheetId="1" r:id="rId1"/>
     <sheet name="Catalogue-sem-2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <r>
       <t xml:space="preserve">Catalogue produit </t>
@@ -856,6 +856,13 @@
 • Si succès redirection sur la page d'accueil
   et déconnexion dans la navbar deviens 
   login.</t>
+  </si>
+  <si>
+    <t>DÉBUTER
+75%</t>
+  </si>
+  <si>
+    <t>Étienne</t>
   </si>
 </sst>
 </file>
@@ -992,7 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1023,9 +1030,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1121,10 +1125,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1412,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1422,9 +1444,9 @@
     <col min="2" max="2" width="5.796875" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="35.59765625" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
     <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="7" customWidth="1"/>
     <col min="8" max="8" width="31.69921875" customWidth="1"/>
     <col min="9" max="1024" width="8.5" customWidth="1"/>
     <col min="1025" max="1025" width="11.19921875" customWidth="1"/>
@@ -1495,31 +1517,31 @@
       <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="110.4">
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:8" ht="110.4">
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="52"/>
+      <c r="H13" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="18" customFormat="1" ht="82.8">
+    <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
       <c r="C14" s="10">
         <v>3</v>
       </c>
@@ -1529,351 +1551,371 @@
       <c r="E14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="45">
+        <v>5</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
+      <c r="C17" s="16">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C18" s="45">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="18" customFormat="1" ht="138">
-      <c r="C15" s="17">
-        <v>4</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="G18" s="54"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C19" s="16">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="2:8" s="18" customFormat="1" ht="96.6">
-      <c r="C16" s="46">
-        <v>5</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="G19" s="51"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="45">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" spans="3:8" s="18" customFormat="1" ht="55.2">
-      <c r="C17" s="17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="G20" s="54"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C21" s="16">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="45">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="3:8" s="18" customFormat="1" ht="69">
-      <c r="C18" s="46">
-        <v>7</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="G22" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C23" s="16">
+        <v>12</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="45">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C25" s="16">
+        <v>14</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="45">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
+      <c r="C27" s="16">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="3:8" s="24" customFormat="1" ht="55.2">
-      <c r="C19" s="17">
-        <v>8</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="G27" s="51"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="45">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="3:8" s="18" customFormat="1" ht="69">
-      <c r="C20" s="46">
-        <v>9</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C29" s="16">
+        <v>18</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="3:8" s="24" customFormat="1" ht="69">
-      <c r="C21" s="17">
-        <v>10</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="3:8" s="18" customFormat="1" ht="41.4">
-      <c r="C22" s="46">
-        <v>11</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="3:8" s="24" customFormat="1" ht="69">
-      <c r="C23" s="17">
-        <v>12</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="3:8" s="18" customFormat="1" ht="82.8">
-      <c r="C24" s="46">
-        <v>13</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="3:8" s="24" customFormat="1" ht="55.2">
-      <c r="C25" s="17">
-        <v>14</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="3:8" s="18" customFormat="1" ht="69">
-      <c r="C26" s="46">
-        <v>15</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="3:8" s="24" customFormat="1" ht="82.8">
-      <c r="C27" s="17">
-        <v>16</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="G29" s="51"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="45">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="46">
-        <v>17</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="3:8" s="29" customFormat="1" ht="55.2">
-      <c r="C29" s="17">
-        <v>18</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="46">
-        <v>19</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="3:8" s="29" customFormat="1" ht="55.2">
-      <c r="C31" s="17">
+      <c r="F30" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C31" s="16">
         <v>20</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="1"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="29"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="35"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:8">
       <c r="D39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="E42" s="29"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1950,102 +1992,102 @@
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="15">
       <c r="B11"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="69">
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>3</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>4</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="44" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>5</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>6</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C18" s="15"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5" t="s">

--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <r>
       <t xml:space="preserve">Catalogue produit </t>
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1795,10 +1795,12 @@
       <c r="E28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="54"/>
+      <c r="F28" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>67</v>
+      </c>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">

--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\GitHub\TP-AppWeb\Enonce\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue-sem-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Catalogue-sem-2" sheetId="2" r:id="rId2"/>
+    <sheet name="Catalogue-sem-2" sheetId="6" r:id="rId2"/>
+    <sheet name="Catalogue-sem-3" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="70">
   <si>
     <r>
       <t xml:space="preserve">Catalogue produit </t>
@@ -805,9 +801,6 @@
     <t>Voir la feuille #2</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur anonyme, je veux pouvoir contacter le responsable du site avec un formulaire de contact afin de lui faire parvenir des commentaires ou des recommandations.</t>
-  </si>
-  <si>
     <t>En tant que nouvel utilisateur connecté, je veux pouvoir me déconnecter sur le site, afin de protéger mon compte.</t>
   </si>
   <si>
@@ -858,17 +851,28 @@
   login.</t>
   </si>
   <si>
+    <t>Étienne</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
     <t>DÉBUTER
-75%</t>
-  </si>
-  <si>
-    <t>Étienne</t>
+50%</t>
+  </si>
+  <si>
+    <t>DÉBUTER
+80%</t>
+  </si>
+  <si>
+    <t>DÉBUTER
+65%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$$-C0C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$$-C0C]"/>
   </numFmts>
@@ -999,7 +1003,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1099,19 +1103,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1147,6 +1138,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1212,7 +1212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1247,7 +1247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1424,18 +1424,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1517,10 +1517,10 @@
       <c r="E12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="49"/>
+      <c r="F12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="44"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" ht="110.4">
@@ -1534,9 +1534,9 @@
         <v>18</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="G13" s="47"/>
       <c r="H13" s="15" t="s">
         <v>19</v>
       </c>
@@ -1551,12 +1551,10 @@
       <c r="E14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>67</v>
-      </c>
+      <c r="F14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="44"/>
       <c r="H14" s="13" t="s">
         <v>23</v>
       </c>
@@ -1566,36 +1564,32 @@
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="40">
+        <v>5</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
-      <c r="C16" s="45">
-        <v>5</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="48"/>
+      <c r="F16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
       <c r="C17" s="16">
@@ -1607,16 +1601,14 @@
       <c r="E17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>27</v>
-      </c>
+      <c r="F17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="46"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C18" s="45">
+      <c r="C18" s="40">
         <v>7</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -1628,7 +1620,7 @@
       <c r="F18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -1644,11 +1636,11 @@
       <c r="F19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C20" s="45">
+      <c r="C20" s="40">
         <v>9</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -1660,7 +1652,7 @@
       <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="54"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
@@ -1676,11 +1668,11 @@
       <c r="F21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="51"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
-      <c r="C22" s="45">
+      <c r="C22" s="40">
         <v>11</v>
       </c>
       <c r="D22" s="21" t="s">
@@ -1689,12 +1681,10 @@
       <c r="E22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>67</v>
-      </c>
+      <c r="F22" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="49"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
@@ -1707,16 +1697,14 @@
       <c r="E23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="F23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="46"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C24" s="45">
+      <c r="C24" s="40">
         <v>13</v>
       </c>
       <c r="D24" s="21" t="s">
@@ -1725,12 +1713,10 @@
       <c r="E24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>67</v>
-      </c>
+      <c r="F24" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="49"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -1743,16 +1729,14 @@
       <c r="E25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="F25" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="46"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C26" s="45">
+      <c r="C26" s="40">
         <v>15</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -1761,12 +1745,10 @@
       <c r="E26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>67</v>
-      </c>
+      <c r="F26" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="49"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
@@ -1782,11 +1764,11 @@
       <c r="F27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="51"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="45">
+      <c r="C28" s="40">
         <v>17</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -1795,12 +1777,10 @@
       <c r="E28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>67</v>
-      </c>
+      <c r="F28" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="49"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -1816,11 +1796,11 @@
       <c r="F29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="51"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="45">
+      <c r="C30" s="40">
         <v>19</v>
       </c>
       <c r="D30" s="21" t="s">
@@ -1829,12 +1809,10 @@
       <c r="E30" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>67</v>
-      </c>
+      <c r="F30" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="49"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -1847,12 +1825,10 @@
       <c r="E31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="F31" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="46"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="3:8">
@@ -1860,7 +1836,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="54"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="21"/>
     </row>
     <row r="35" spans="2:8">
@@ -1868,7 +1844,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="55"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="30"/>
     </row>
     <row r="36" spans="2:8">
@@ -1945,10 +1921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
@@ -1956,10 +1934,10 @@
     <col min="2" max="2" width="5.796875" customWidth="1"/>
     <col min="3" max="3" width="6.8984375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="35.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" customWidth="1"/>
-    <col min="8" max="8" width="23.19921875" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31.69921875" customWidth="1"/>
     <col min="9" max="1024" width="8.5" customWidth="1"/>
     <col min="1025" max="1025" width="11.19921875" customWidth="1"/>
   </cols>
@@ -1973,137 +1951,998 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="2:8" ht="23.85" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="3" customFormat="1" ht="15">
-      <c r="B11"/>
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="69">
-      <c r="C12" s="14">
+    <row r="12" spans="2:8" ht="55.2">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="2:8" ht="46.2" customHeight="1">
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="110.4">
       <c r="C13" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42" t="s">
+      <c r="D13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="40">
+        <v>5</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
+      <c r="C17" s="16">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C18" s="40">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C19" s="16">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="40">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C21" s="16">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="40">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C23" s="16">
+        <v>12</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="40">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C25" s="16">
+        <v>14</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="40">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
+      <c r="C27" s="16">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="40">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C29" s="16">
+        <v>18</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="40">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C31" s="16">
+        <v>20</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="46"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="C35" s="1"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="D36" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="D37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="D38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="D39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="D40" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C14" s="14">
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="D41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="D43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="5.796875" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="31.69921875" customWidth="1"/>
+    <col min="9" max="1024" width="8.5" customWidth="1"/>
+    <col min="1025" max="1025" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="22.8">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="23.85" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="55.2">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="110.4">
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="40">
+        <v>5</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
+      <c r="C17" s="16">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C18" s="40">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C19" s="16">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="40">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C21" s="16">
+        <v>10</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="40">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
+      <c r="C23" s="16">
+        <v>12</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="40">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
+      <c r="C25" s="16">
+        <v>14</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="40">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
+      <c r="C27" s="16">
+        <v>16</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="40">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C29" s="16">
+        <v>18</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="40">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
+      <c r="C31" s="16">
+        <v>20</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="C35" s="1"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="D36" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="D37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="D38" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C15" s="14">
-        <v>4</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="43" t="s">
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="D39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="D40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="D41" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C16" s="14">
-        <v>5</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C17" s="14">
-        <v>6</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="2:8" ht="46.2" customHeight="1">
-      <c r="C18" s="14"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="5" t="s">
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="D43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="C23" t="s">
+    <row r="48" spans="2:8">
+      <c r="C48" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="78">
   <si>
     <r>
       <t xml:space="preserve">Catalogue produit </t>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Nom de l'équipe :</t>
-  </si>
-  <si>
-    <t>https://immense-lowlands-82933.herokuapp.com/</t>
   </si>
   <si>
     <t>Équipier #1 :</t>
@@ -868,6 +865,33 @@
     <t>DÉBUTER
 65%</t>
   </si>
+  <si>
+    <t>http://etifredmovies.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>Si l'on n'est pas connecté, on ne voit pas les commentaires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point boni: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous avons rencontré un problème avec l'utilisation de l'api lorsque nous créions des comptes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque l'on mettait Etienne@test.com comme email, l'api nous retournais un code d'erreur 500 et </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniquement pour ce courriel. Nous avons passé plusieurs heures à essayer de comprendre et régler le </t>
+  </si>
+  <si>
+    <t>problème, mais en vain.</t>
+  </si>
+  <si>
+    <t>Backlog pour la semaine #3</t>
+  </si>
+  <si>
+    <t>Voir la feuille #3</t>
+  </si>
 </sst>
 </file>
 
@@ -876,7 +900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$$-C0C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$$-C0C]"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -926,6 +950,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -992,7 +1022,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
@@ -1002,8 +1032,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,7 +1136,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1148,10 +1181,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -1167,6 +1215,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2166258</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307362</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>162006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="27346" t="7373" r="-209" b="4873"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6226629" y="21823297"/>
+          <a:ext cx="7840276" cy="5269966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,7 +1524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1461,50 +1561,50 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+      <c r="D4" s="53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="23.85" customHeight="1">
       <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="55.2">
@@ -1512,15 +1612,15 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="44"/>
+      <c r="F12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="43"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" ht="110.4">
@@ -1528,17 +1628,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
@@ -1546,17 +1646,17 @@
         <v>3</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="G14" s="43"/>
+      <c r="H14" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
@@ -1564,63 +1664,63 @@
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="39">
+        <v>5</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
-      <c r="C16" s="40">
-        <v>5</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
       <c r="C17" s="16">
         <v>6</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="46"/>
+      <c r="F17" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="45"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>7</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="G18" s="48"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -1628,31 +1728,31 @@
         <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="39">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C20" s="40">
-        <v>9</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="G20" s="48"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
@@ -1660,31 +1760,31 @@
         <v>10</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="39">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
-      <c r="C22" s="40">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="49"/>
+      <c r="F22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="48"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
@@ -1692,31 +1792,31 @@
         <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="39">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C24" s="40">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="49"/>
+      <c r="F24" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="48"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -1724,31 +1824,31 @@
         <v>14</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="39">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C26" s="40">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="49"/>
+      <c r="F26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="48"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
@@ -1756,31 +1856,31 @@
         <v>16</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="39">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="40">
-        <v>17</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="48"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -1788,31 +1888,31 @@
         <v>18</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="F29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="39">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="40">
-        <v>19</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="48"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -1820,15 +1920,15 @@
         <v>20</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="46"/>
+      <c r="F31" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="45"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="3:8">
@@ -1836,7 +1936,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="21"/>
     </row>
     <row r="35" spans="2:8">
@@ -1844,42 +1944,42 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="30"/>
     </row>
     <row r="36" spans="2:8">
       <c r="D36" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:8">
       <c r="D37" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:8">
       <c r="D38" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:8">
       <c r="D39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:8">
       <c r="D40" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:8">
       <c r="D41" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="35"/>
     </row>
@@ -1888,31 +1988,32 @@
     </row>
     <row r="43" spans="2:8">
       <c r="D43" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="D44" s="38" t="s">
-        <v>2</v>
+      <c r="D44" s="58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D44" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1924,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1951,50 +2052,50 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+      <c r="D4" s="53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="23.85" customHeight="1">
       <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="55.2">
@@ -2002,16 +2103,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>65</v>
+      <c r="F12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -2020,19 +2121,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
@@ -2040,19 +2141,19 @@
         <v>3</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>65</v>
+      <c r="F14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
@@ -2060,69 +2161,69 @@
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="39">
+        <v>5</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
-      <c r="C16" s="40">
-        <v>5</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="42" t="s">
+      <c r="F16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
       <c r="C17" s="16">
         <v>6</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C18" s="39">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C18" s="40">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="G18" s="48"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -2130,31 +2231,31 @@
         <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="39">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C20" s="40">
-        <v>9</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="G20" s="48"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
@@ -2162,31 +2263,31 @@
         <v>10</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="39">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
-      <c r="C22" s="40">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="F22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="49"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="48"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
@@ -2194,31 +2295,31 @@
         <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="39">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C24" s="40">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="49"/>
+      <c r="F24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="48"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
@@ -2226,31 +2327,31 @@
         <v>14</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="39">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C26" s="40">
+      <c r="E26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
@@ -2258,31 +2359,31 @@
         <v>16</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="39">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="40">
-        <v>17</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="48"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -2290,31 +2391,31 @@
         <v>18</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="F29" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="39">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="40">
-        <v>19</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="48"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
@@ -2322,15 +2423,15 @@
         <v>20</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="46"/>
+      <c r="F31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="45"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="3:8">
@@ -2338,7 +2439,7 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="21"/>
     </row>
     <row r="35" spans="2:8">
@@ -2346,42 +2447,42 @@
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="30"/>
     </row>
     <row r="36" spans="2:8">
       <c r="D36" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:8">
       <c r="D37" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:8">
       <c r="D38" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="23"/>
     </row>
     <row r="39" spans="2:8">
       <c r="D39" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="23"/>
     </row>
     <row r="40" spans="2:8">
       <c r="D40" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:8">
       <c r="D41" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="35"/>
     </row>
@@ -2390,31 +2491,32 @@
     </row>
     <row r="43" spans="2:8">
       <c r="D43" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="D44" s="38" t="s">
-        <v>2</v>
+      <c r="D44" s="58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D44" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2424,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H48"/>
+  <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -2453,50 +2555,50 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+      <c r="D4" s="53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="23.85" customHeight="1">
       <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="55.2">
@@ -2504,16 +2606,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>27</v>
+      <c r="F12" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -2522,19 +2624,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
@@ -2542,19 +2644,19 @@
         <v>3</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>65</v>
+      <c r="F14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
@@ -2562,70 +2664,70 @@
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+      <c r="C16" s="39">
+        <v>5</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
-      <c r="C16" s="40">
-        <v>5</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="42" t="s">
+      <c r="F16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
       <c r="C17" s="16">
         <v>6</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="G17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C18" s="39">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C18" s="40">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="H18" s="21"/>
     </row>
@@ -2634,34 +2736,34 @@
         <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C20" s="39">
+        <v>9</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C20" s="40">
-        <v>9</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>66</v>
+      <c r="F20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="H20" s="21"/>
     </row>
@@ -2670,34 +2772,34 @@
         <v>10</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="F21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
+      <c r="C22" s="39">
+        <v>11</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
-      <c r="C22" s="40">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>65</v>
+      <c r="F22" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="H22" s="21"/>
     </row>
@@ -2706,34 +2808,34 @@
         <v>12</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C24" s="39">
+        <v>13</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C24" s="40">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>65</v>
+      <c r="F24" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="H24" s="21"/>
     </row>
@@ -2742,34 +2844,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
+      <c r="C26" s="39">
+        <v>15</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C26" s="40">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>65</v>
+      <c r="F26" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="H26" s="21"/>
     </row>
@@ -2778,32 +2880,32 @@
         <v>16</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="F27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="82.8">
+      <c r="C28" s="39">
+        <v>17</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="40">
-        <v>17</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="H28" s="21"/>
     </row>
@@ -2812,34 +2914,36 @@
         <v>18</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="F29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="41.4">
+      <c r="C30" s="39">
+        <v>19</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="40">
-        <v>19</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="E30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="H30" s="21"/>
     </row>
@@ -2848,16 +2952,16 @@
         <v>20</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="F31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="H31" s="18"/>
     </row>
@@ -2866,86 +2970,135 @@
       <c r="D32" s="21"/>
       <c r="E32" s="22"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:11">
       <c r="C35" s="1"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="50"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:11">
       <c r="D36" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="D37" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="D38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="D37" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="34"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="D38" s="26" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="D39" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="D39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="D40" s="26" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="D41" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="D41" s="36" t="s">
+      <c r="E41" s="35"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="D43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="35"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="D43" s="37" t="s">
-        <v>58</v>
-      </c>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="2:8">
-      <c r="D44" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
+    <row r="44" spans="2:11">
+      <c r="D44" s="58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F41:K41"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D44" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\GitHub\TP-AppWeb\Enonce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
@@ -896,7 +901,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$$-C0C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$$-C0C]"/>
   </numFmts>
@@ -1182,19 +1187,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
@@ -1524,17 +1529,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +1998,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2022,11 +2027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -2074,7 +2079,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
@@ -2496,7 +2501,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2525,11 +2530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -2577,7 +2582,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
@@ -2986,7 +2991,7 @@
         <v>53</v>
       </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="55" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="56"/>
@@ -3042,26 +3047,26 @@
         <v>55</v>
       </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
     </row>
     <row r="41" spans="2:11">
       <c r="D41" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
     </row>
     <row r="42" spans="2:11">
       <c r="E42" s="28"/>
@@ -3073,7 +3078,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="D44" s="58" t="s">
+      <c r="D44" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3082,12 +3087,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F41:K41"/>
     <mergeCell ref="F36:K36"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F41:K41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>

--- a/Enonce/Backlog.xlsx
+++ b/Enonce/Backlog.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\GitHub\TP-AppWeb\Enonce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etien\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue-sem-1" sheetId="1" r:id="rId1"/>
     <sheet name="Catalogue-sem-2" sheetId="6" r:id="rId2"/>
     <sheet name="Catalogue-sem-3" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <r>
       <t xml:space="preserve">Catalogue produit </t>
@@ -867,41 +867,58 @@
 80%</t>
   </si>
   <si>
-    <t>DÉBUTER
-65%</t>
-  </si>
-  <si>
     <t>http://etifredmovies.herokuapp.com/</t>
   </si>
   <si>
-    <t>Si l'on n'est pas connecté, on ne voit pas les commentaires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point boni: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous avons rencontré un problème avec l'utilisation de l'api lorsque nous créions des comptes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorsque l'on mettait Etienne@test.com comme email, l'api nous retournais un code d'erreur 500 et </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniquement pour ce courriel. Nous avons passé plusieurs heures à essayer de comprendre et régler le </t>
-  </si>
-  <si>
-    <t>problème, mais en vain.</t>
-  </si>
-  <si>
     <t>Backlog pour la semaine #3</t>
   </si>
   <si>
     <t>Voir la feuille #3</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux avoir accès à la liste de tous les utilisateurs pour pouvoir suivre mes préférés.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux pouvoir suivre un utilisateur pour pouvoir voir ses favoris.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux pouvoir supprimer un utilisateur de ma liste de suivis pour mettre à jour ma liste</t>
+  </si>
+  <si>
+    <t>&gt; Page de recherche d'utilisateur                      &gt; Bouton pour lancer la recherche</t>
+  </si>
+  <si>
+    <t>&gt; Bouton suivre à coter de la fiche de l'utilisateur</t>
+  </si>
+  <si>
+    <t>&gt; Page de suivis des utilisateurs</t>
+  </si>
+  <si>
+    <t>&gt; Bouton suprimer a coter de la fiche d'un utilisateur que l'on suis.</t>
+  </si>
+  <si>
+    <t>Ne sera pas réalisé</t>
+  </si>
+  <si>
+    <t>NON RÉALISÉ</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux avoir la liste de mes utilisateurs suivis pour pouvoir les voirs.</t>
+  </si>
+  <si>
+    <t>Frédéric Bérubé</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux que la page rechercher un utilisateur recharge par elle-même si une erreur 500 surviens, pour éviter a l'utilisateur de recharger la page</t>
+  </si>
+  <si>
+    <t>&gt; Lors d'un erreur 500 la page recharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$$-C0C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$$-C0C]"/>
   </numFmts>
@@ -1042,7 +1059,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,6 +1205,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1196,9 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1220,58 +1240,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2166258</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>117183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>307362</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>162006</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="27346" t="7373" r="-209" b="4873"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6226629" y="21823297"/>
-          <a:ext cx="7840276" cy="5269966"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1317,7 +1285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1352,7 +1320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -1567,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
@@ -1999,7 +1967,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="D44" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:8">
@@ -2058,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
@@ -2502,17 +2470,17 @@
     </row>
     <row r="44" spans="2:8">
       <c r="D44" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="C48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2502,7 @@
   <dimension ref="B2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -2560,9 +2528,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>69</v>
-      </c>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="3" t="s">
@@ -2577,12 +2543,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="6" customFormat="1" ht="15">
@@ -2606,368 +2572,214 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="55.2">
+    <row r="12" spans="2:8" ht="41.4">
       <c r="C12" s="10">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="2:8" ht="110.4">
+    <row r="13" spans="2:8" ht="41.4">
       <c r="C13" s="14">
         <v>2</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="17" customFormat="1" ht="82.8">
+        <v>64</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" s="17" customFormat="1" ht="41.4">
       <c r="C14" s="10">
         <v>3</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" s="17" customFormat="1" ht="124.2">
+        <v>65</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" s="17" customFormat="1" ht="41.4">
       <c r="C15" s="16">
         <v>4</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="2:8" s="17" customFormat="1" ht="82.8">
+        <v>77</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="17" customFormat="1" ht="69">
       <c r="C16" s="39">
         <v>5</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>60</v>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="42"/>
     </row>
-    <row r="17" spans="3:8" s="17" customFormat="1" ht="55.2">
-      <c r="C17" s="16">
-        <v>6</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="3:8" s="17" customFormat="1">
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C18" s="39">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>65</v>
-      </c>
+    <row r="18" spans="3:8" s="17" customFormat="1">
+      <c r="C18" s="39"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="21"/>
     </row>
-    <row r="19" spans="3:8" s="23" customFormat="1" ht="55.2">
-      <c r="C19" s="16">
-        <v>8</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>65</v>
-      </c>
+    <row r="19" spans="3:8" s="23" customFormat="1">
+      <c r="C19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C20" s="39">
-        <v>9</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>65</v>
-      </c>
+    <row r="20" spans="3:8" s="17" customFormat="1">
+      <c r="C20" s="39"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="21"/>
     </row>
-    <row r="21" spans="3:8" s="23" customFormat="1" ht="69">
-      <c r="C21" s="16">
-        <v>10</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>65</v>
-      </c>
+    <row r="21" spans="3:8" s="23" customFormat="1">
+      <c r="C21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" s="17" customFormat="1" ht="41.4">
-      <c r="C22" s="39">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="22" spans="3:8" s="17" customFormat="1">
+      <c r="C22" s="39"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="3:8" s="23" customFormat="1" ht="69">
-      <c r="C23" s="16">
-        <v>12</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>64</v>
-      </c>
+    <row r="23" spans="3:8" s="23" customFormat="1">
+      <c r="C23" s="16"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C24" s="39">
-        <v>13</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="24" spans="3:8" s="17" customFormat="1">
+      <c r="C24" s="39"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="3:8" s="23" customFormat="1" ht="55.2">
-      <c r="C25" s="16">
-        <v>14</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>64</v>
-      </c>
+    <row r="25" spans="3:8" s="23" customFormat="1">
+      <c r="C25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="3:8" s="17" customFormat="1" ht="69">
-      <c r="C26" s="39">
-        <v>15</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="26" spans="3:8" s="17" customFormat="1">
+      <c r="C26" s="39"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="3:8" s="23" customFormat="1" ht="82.8">
-      <c r="C27" s="16">
-        <v>16</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>21</v>
-      </c>
+    <row r="27" spans="3:8" s="23" customFormat="1">
+      <c r="C27" s="16"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="45"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="3:8" ht="82.8">
-      <c r="C28" s="39">
-        <v>17</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="28" spans="3:8">
+      <c r="C28" s="39"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="3:8" s="28" customFormat="1" ht="55.2">
-      <c r="C29" s="16">
-        <v>18</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="41.4">
-      <c r="C30" s="39">
-        <v>19</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="29" spans="3:8" s="28" customFormat="1">
+      <c r="C29" s="16"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="39"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="3:8" s="28" customFormat="1" ht="55.2">
-      <c r="C31" s="16">
-        <v>20</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>64</v>
-      </c>
+    <row r="31" spans="3:8" s="28" customFormat="1">
+      <c r="C31" s="16"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="3:8">
@@ -2991,82 +2803,72 @@
         <v>53</v>
       </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="2:11">
       <c r="D37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="34"/>
-      <c r="F37" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="2:11">
       <c r="D38" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="23"/>
-      <c r="F38" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
     </row>
     <row r="39" spans="2:11">
       <c r="D39" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="2:11">
       <c r="D40" s="26" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
     </row>
     <row r="41" spans="2:11">
       <c r="D41" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
     </row>
     <row r="42" spans="2:11">
       <c r="E42" s="28"/>
@@ -3078,9 +2880,7 @@
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="D44" s="54" t="s">
-        <v>69</v>
-      </c>
+      <c r="D44" s="54"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="5"/>
@@ -3094,16 +2894,11 @@
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="F40:K40"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D44" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>